--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,14 +947,20 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,31 +1003,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1006,16 +1045,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,52 +1124,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,19 +1255,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1223,8 +1290,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,43 +1305,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G21" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,11 +1360,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1305,58 +1384,70 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G27" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,14 +1734,20 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,20 +1855,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1751,52 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G33" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G35" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,67 +2139,75 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>2200</v>
       </c>
       <c r="I41" s="3">
+        <v>900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>100</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2038,11 +2217,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2056,29 +2235,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
@@ -2092,33 +2277,39 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2126,11 +2317,11 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2144,38 +2335,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
-        <v>700</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
@@ -2183,101 +2380,119 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3100</v>
-      </c>
       <c r="G46" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="H46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>100</v>
+      </c>
+      <c r="O47" s="3">
+        <v>100</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
-        <v>200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>100</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>200</v>
-      </c>
-      <c r="P47" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2314,14 +2529,20 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2600</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="G52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>2200</v>
       </c>
       <c r="I52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>4800</v>
+        <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>5500</v>
+        <v>3500</v>
       </c>
       <c r="G54" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="H54" s="3">
-        <v>4800</v>
+        <v>5400</v>
       </c>
       <c r="I54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,75 +2879,83 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2708,8 +2975,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2723,7 +2996,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2735,13 +3008,13 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2750,54 +3023,66 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
+        <v>700</v>
+      </c>
+      <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,13 +3125,19 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
-        <v>700</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
-        <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-17300</v>
+        <v>-20200</v>
       </c>
       <c r="E72" s="3">
-        <v>-16100</v>
+        <v>-19900</v>
       </c>
       <c r="F72" s="3">
-        <v>-14400</v>
+        <v>-16700</v>
       </c>
       <c r="G72" s="3">
-        <v>-12800</v>
+        <v>-15600</v>
       </c>
       <c r="H72" s="3">
-        <v>-11600</v>
+        <v>-13900</v>
       </c>
       <c r="I72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-68900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2500</v>
+        <v>-1000</v>
       </c>
       <c r="E76" s="3">
-        <v>3600</v>
+        <v>-800</v>
       </c>
       <c r="F76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="G76" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1900</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="G81" s="3">
-        <v>-1400</v>
+        <v>-1800</v>
       </c>
       <c r="H81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,13 +4394,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3987,11 +4428,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4440,14 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4096,43 +4555,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>100</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,43 +4825,49 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F17" s="3">
         <v>1300</v>
       </c>
       <c r="G17" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H17" s="3">
         <v>1500</v>
       </c>
       <c r="I17" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
@@ -1185,19 +1185,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F18" s="3">
         <v>-1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H18" s="3">
         <v>-1500</v>
       </c>
       <c r="I18" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J18" s="3">
         <v>-1000</v>
@@ -1305,22 +1305,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G21" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I21" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J21" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K21" s="3">
         <v>-1200</v>
@@ -1405,22 +1405,22 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F23" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H23" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I23" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J23" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
@@ -1555,22 +1555,22 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J26" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
@@ -1605,22 +1605,22 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F27" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I27" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
@@ -1905,22 +1905,22 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F33" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J33" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
@@ -2005,22 +2005,22 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F35" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J35" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
@@ -2159,13 +2159,13 @@
         <v>1200</v>
       </c>
       <c r="H41" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I41" s="3">
         <v>900</v>
       </c>
       <c r="J41" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K41" s="3">
         <v>3000</v>
@@ -2359,7 +2359,7 @@
         <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -2403,19 +2403,19 @@
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H46" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I46" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K46" s="3">
         <v>3200</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2703,19 +2703,19 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2100</v>
       </c>
       <c r="K52" s="3">
         <v>1900</v>
@@ -2803,19 +2803,19 @@
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G54" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H54" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I54" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="J54" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K54" s="3">
         <v>5300</v>
@@ -2890,19 +2890,19 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3037,13 +3037,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1000</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
@@ -3055,7 +3055,7 @@
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
@@ -3337,13 +3337,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1000</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
@@ -3352,10 +3352,10 @@
         <v>900</v>
       </c>
       <c r="I66" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
@@ -3607,25 +3607,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-20200</v>
+        <v>-21100</v>
       </c>
       <c r="E72" s="3">
-        <v>-19900</v>
+        <v>-20900</v>
       </c>
       <c r="F72" s="3">
-        <v>-16700</v>
+        <v>-17500</v>
       </c>
       <c r="G72" s="3">
-        <v>-15600</v>
+        <v>-16300</v>
       </c>
       <c r="H72" s="3">
-        <v>-13900</v>
+        <v>-14600</v>
       </c>
       <c r="I72" s="3">
-        <v>-12300</v>
+        <v>-12900</v>
       </c>
       <c r="J72" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="K72" s="3">
         <v>-10600</v>
@@ -3807,25 +3807,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G76" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H76" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I76" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J76" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K76" s="3">
         <v>4600</v>
@@ -3965,22 +3965,22 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-2800</v>
       </c>
       <c r="F81" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="H81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J81" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
@@ -4341,13 +4341,13 @@
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H89" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>700</v>
       </c>
       <c r="H100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
@@ -4937,7 +4937,7 @@
         <v>1300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -953,14 +967,17 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,35 +1026,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>2100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1051,16 +1071,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>2600</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
-        <v>1900</v>
-      </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,23 +1289,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,66 +1342,69 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1390,64 +1430,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,13 +1754,16 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1740,14 +1801,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,23 +1925,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2202,15 +2292,15 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2223,8 +2313,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2262,10 +2355,10 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2283,16 +2376,19 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,8 +2398,8 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2311,8 +2407,8 @@
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2323,8 +2419,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2341,40 +2437,43 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2386,71 +2485,77 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
-        <v>2200</v>
-      </c>
       <c r="H46" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="I46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2459,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2474,7 +2579,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -2486,13 +2591,16 @@
         <v>100</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2535,14 +2643,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,46 +2808,49 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
-        <v>2600</v>
-      </c>
       <c r="H52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H54" s="3">
         <v>4900</v>
       </c>
-      <c r="H54" s="3">
-        <v>5600</v>
-      </c>
       <c r="I54" s="3">
-        <v>4200</v>
+        <v>5700</v>
       </c>
       <c r="J54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,43 +3011,44 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>600</v>
@@ -2926,22 +3057,25 @@
         <v>600</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2957,8 +3091,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2981,13 +3115,16 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3002,87 +3139,93 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
-        <v>900</v>
-      </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>600</v>
       </c>
       <c r="L60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,16 +3274,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
-        <v>900</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-21100</v>
       </c>
-      <c r="E72" s="3">
-        <v>-20900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-17500</v>
-      </c>
       <c r="G72" s="3">
-        <v>-16300</v>
+        <v>-17700</v>
       </c>
       <c r="H72" s="3">
-        <v>-14600</v>
+        <v>-16500</v>
       </c>
       <c r="I72" s="3">
-        <v>-12900</v>
+        <v>-14700</v>
       </c>
       <c r="J72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1400</v>
       </c>
       <c r="H89" s="3">
         <v>-1400</v>
       </c>
       <c r="I89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-700</v>
       </c>
       <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,16 +4616,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4434,8 +4655,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5059,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>2700</v>
-      </c>
       <c r="I100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4858,16 +5104,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
-        <v>1300</v>
-      </c>
       <c r="I102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,14 +984,17 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,38 +1046,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2100</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="F14" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+        <v>3500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1074,16 +1094,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1179,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>2700</v>
-      </c>
       <c r="G17" s="3">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1245,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G18" s="3">
-        <v>-1300</v>
+        <v>-3500</v>
       </c>
       <c r="H18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1292,23 +1326,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1333,8 +1367,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,52 +1379,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G21" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,67 +1473,73 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,16 +1815,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1804,14 +1865,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1928,23 +1998,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1969,61 +2039,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>2300</v>
+        <v>1600</v>
       </c>
       <c r="J41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2295,14 +2385,14 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
-        <v>200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2316,8 +2406,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2349,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2358,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2379,16 +2472,19 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,8 +2497,8 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
@@ -2410,8 +2506,8 @@
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2422,8 +2518,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2440,43 +2536,46 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J45" s="3">
+        <v>900</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2488,66 +2587,72 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>2300</v>
+        <v>1300</v>
       </c>
       <c r="I46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2557,8 +2662,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2567,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -2582,7 +2687,7 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
@@ -2594,13 +2699,16 @@
         <v>100</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2646,14 +2754,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,49 +2928,52 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>2800</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="I52" s="3">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="J52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
       <c r="O52" s="3">
+        <v>100</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>3700</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M54" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N54" s="3">
         <v>5700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,46 +3142,47 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
@@ -3060,25 +3191,28 @@
         <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,8 +3228,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3118,114 +3252,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,19 +3420,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>1000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="E66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="E72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-21400</v>
       </c>
-      <c r="F72" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-14700</v>
-      </c>
       <c r="J72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2600</v>
-      </c>
       <c r="H76" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="I76" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J76" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-700</v>
       </c>
       <c r="N89" s="3">
         <v>-700</v>
       </c>
       <c r="O89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,8 +4849,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4658,8 +4879,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,44 +5305,47 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>700</v>
-      </c>
       <c r="I100" s="3">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="J100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5107,16 +5353,19 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>4800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>600</v>
+        <v>-600</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,93 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,14 +1000,17 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,41 +1065,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1097,16 +1116,19 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>3500</v>
-      </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1329,23 +1362,23 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1370,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1476,70 +1515,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1829,8 +1889,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1868,14 +1928,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2001,23 +2070,23 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2042,64 +2111,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2388,15 +2477,15 @@
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2409,8 +2498,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2427,13 +2516,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2445,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2454,10 +2546,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2475,16 +2567,19 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2500,8 +2595,8 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2509,8 +2604,8 @@
       <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2521,8 +2616,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2539,46 +2634,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2590,69 +2688,75 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2665,8 +2769,8 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2675,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2690,7 +2794,7 @@
         <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
@@ -2702,18 +2806,21 @@
         <v>100</v>
       </c>
       <c r="S47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2757,14 +2864,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,52 +3047,55 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>3500</v>
       </c>
       <c r="J52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,49 +3272,50 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
@@ -3194,30 +3324,33 @@
         <v>600</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>400</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3364,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3255,22 +3388,25 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3279,101 +3415,107 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
-        <v>1500</v>
-      </c>
       <c r="H60" s="3">
+        <v>400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>600</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3423,22 +3565,25 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3479,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
-        <v>1500</v>
-      </c>
       <c r="H66" s="3">
+        <v>400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3300</v>
+        <v>-2400</v>
       </c>
       <c r="E72" s="3">
         <v>-3300</v>
       </c>
       <c r="F72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-27800</v>
       </c>
-      <c r="G72" s="3">
-        <v>-27400</v>
-      </c>
       <c r="H72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-23000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-68900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1400</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I76" s="3">
         <v>3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1800</v>
       </c>
       <c r="J89" s="3">
         <v>-1800</v>
       </c>
       <c r="K89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-700</v>
       </c>
       <c r="O89" s="3">
         <v>-700</v>
       </c>
       <c r="P89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,8 +5072,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4882,8 +5102,8 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,47 +5550,50 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5356,16 +5601,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>4800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R102" s="3">
-        <v>4600</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +813,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1003,14 +1017,17 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,44 +1085,47 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-600</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1119,16 +1139,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1232,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1304,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1368,20 +1402,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1452,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1518,73 +1558,79 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1892,8 +1953,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1931,14 +1992,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2076,20 +2146,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
-        <v>300</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2480,15 +2570,15 @@
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2501,8 +2591,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2519,28 +2609,31 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2549,10 +2642,10 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2570,16 +2663,19 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2598,8 +2694,8 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2607,8 +2703,8 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2619,8 +2715,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2637,49 +2733,52 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2691,86 +2790,92 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
-        <v>400</v>
-      </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2782,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2797,7 +2902,7 @@
         <v>200</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
@@ -2809,30 +2914,33 @@
         <v>100</v>
       </c>
       <c r="T47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2867,14 +2975,17 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,46 +3179,46 @@
         <v>3000</v>
       </c>
       <c r="E52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>3500</v>
       </c>
       <c r="K52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3">
-        <v>3700</v>
-      </c>
       <c r="F54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1500</v>
       </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,52 +3403,53 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
-        <v>1200</v>
-      </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
@@ -3327,33 +3458,36 @@
         <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="F58" s="3">
+        <v>400</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3367,8 +3501,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3391,25 +3525,28 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
-        <v>1300</v>
-      </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3418,110 +3555,116 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
-        <v>2400</v>
-      </c>
       <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
-        <v>1800</v>
-      </c>
       <c r="H60" s="3">
+        <v>900</v>
+      </c>
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3568,25 +3711,28 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
-        <v>1000</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
-        <v>1800</v>
-      </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
-      </c>
-      <c r="T66" s="3">
-        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
-        <v>-3300</v>
-      </c>
       <c r="F72" s="3">
-        <v>-3300</v>
+        <v>-1300</v>
       </c>
       <c r="G72" s="3">
-        <v>-27800</v>
+        <v>-1300</v>
       </c>
       <c r="H72" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I72" s="3">
         <v>1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-21400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-68900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,8 +4541,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4367,58 +4553,61 @@
         <v>300</v>
       </c>
       <c r="E76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F76" s="3">
+        <v>400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>-5100</v>
       </c>
       <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4636,11 +4835,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>-3100</v>
       </c>
       <c r="E89" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1800</v>
       </c>
       <c r="K89" s="3">
         <v>-1800</v>
       </c>
       <c r="L89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-700</v>
       </c>
       <c r="P89" s="3">
         <v>-700</v>
       </c>
       <c r="Q89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,25 +5278,26 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,50 +5796,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2600</v>
+        <v>4800</v>
       </c>
       <c r="E100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5604,16 +5850,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>4800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
-        <v>800</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,128 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -816,8 +824,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +892,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +960,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +990,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,14 +1048,20 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,50 +1122,56 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1142,16 +1182,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1258,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1285,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5300</v>
+        <v>8400</v>
       </c>
       <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3300</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,47 +1447,49 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1443,70 +1511,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1561,76 +1641,88 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1783,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1851,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,31 +2055,37 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1995,14 +2117,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2191,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,47 +2259,53 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2327,82 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2463,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2634,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,103 +2660,111 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,11 +2774,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2612,13 +2792,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -2626,11 +2812,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2639,19 +2825,19 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2666,51 +2852,57 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2718,11 +2910,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2736,55 +2928,61 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2793,75 +2991,87 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F46" s="3">
         <v>3800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
+        <v>900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2890,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
@@ -2905,10 +3115,10 @@
         <v>200</v>
       </c>
       <c r="Q47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S47" s="3">
         <v>100</v>
@@ -2917,36 +3127,42 @@
         <v>100</v>
       </c>
       <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3">
+        <v>100</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>5000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2978,14 +3194,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3268,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3336,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,61 +3404,67 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>200</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3232,8 +3472,14 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3540,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F54" s="3">
         <v>9500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3638,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,96 +3664,104 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>600</v>
       </c>
       <c r="T57" s="3">
         <v>600</v>
       </c>
       <c r="U57" s="3">
+        <v>600</v>
+      </c>
+      <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3504,11 +3772,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3528,37 +3796,43 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3573,13 +3847,13 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3588,90 +3862,102 @@
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3714,31 +4000,37 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3776,8 +4068,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4136,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4204,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4272,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4370,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4434,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4502,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4570,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4638,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-19100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-10600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-7500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-68900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4774,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4842,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4910,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5046,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5217,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,17 +5233,17 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4883,8 +5281,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5349,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5417,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5485,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5553,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5621,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,31 +5719,33 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5329,11 +5771,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5341,8 +5783,14 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5851,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5919,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6017,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6081,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6149,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6217,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6285,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F100" s="3">
         <v>4800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>4800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6421,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -3153,7 +3153,7 @@
         <v>2700</v>
       </c>
       <c r="G48" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -6442,10 +6442,10 @@
         <v>1300</v>
       </c>
       <c r="G102" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H102" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="I102" s="3">
         <v>700</v>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,134 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -830,13 +833,16 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>4000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -898,13 +904,16 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>7200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1054,14 +1067,17 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,44 +1156,44 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1188,16 +1207,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E17" s="3">
         <v>8400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
-        <v>1200</v>
-      </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
-      </c>
-      <c r="W17" s="3">
-        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,16 +1481,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1466,33 +1499,33 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1517,99 +1550,105 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-500</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1647,82 +1686,88 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-200</v>
       </c>
       <c r="X23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2070,25 +2130,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2123,14 +2183,17 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,16 +2331,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2282,33 +2351,33 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2333,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2756,18 +2845,18 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2780,8 +2869,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2798,17 +2887,20 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2818,17 +2910,17 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2837,10 +2929,10 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2858,16 +2950,19 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2892,11 +2987,11 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2904,8 +2999,8 @@
       <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>100</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2916,8 +3011,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -2934,58 +3029,61 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2997,81 +3095,87 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E46" s="3">
         <v>9700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3106,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
@@ -3121,7 +3225,7 @@
         <v>200</v>
       </c>
       <c r="S47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -3133,39 +3237,42 @@
         <v>100</v>
       </c>
       <c r="W47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E48" s="3">
         <v>6500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3200,14 +3307,17 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,64 +3526,67 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>3500</v>
       </c>
       <c r="N52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O52" s="3">
         <v>3000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
       </c>
       <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
         <v>200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E54" s="3">
         <v>21200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,61 +3795,62 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1800</v>
       </c>
       <c r="F57" s="3">
         <v>1800</v>
       </c>
       <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
@@ -3729,13 +3859,16 @@
         <v>600</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3743,28 +3876,28 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3778,8 +3911,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3802,34 +3935,37 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -3838,108 +3974,114 @@
         <v>200</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E60" s="3">
         <v>8200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
       </c>
       <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3947,19 +4089,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H61" s="3">
         <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4006,34 +4148,37 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4074,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E66" s="3">
         <v>13600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
       <c r="T66" s="3">
+        <v>400</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1300</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-7500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-68900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>300</v>
       </c>
       <c r="G76" s="3">
         <v>300</v>
       </c>
       <c r="H76" s="3">
+        <v>300</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,14 +5437,14 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-500</v>
-      </c>
       <c r="H89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1800</v>
       </c>
       <c r="N89" s="3">
         <v>-1800</v>
       </c>
       <c r="O89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-700</v>
       </c>
       <c r="S89" s="3">
         <v>-700</v>
       </c>
       <c r="T89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,34 +5940,35 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5777,8 +5997,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5934,67 +6163,70 @@
         <v>-1400</v>
       </c>
       <c r="E94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-300</v>
-      </c>
       <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,59 +6533,62 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4800</v>
       </c>
-      <c r="G100" s="3">
-        <v>1100</v>
-      </c>
       <c r="H100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6351,16 +6596,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>4800</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>800</v>
-      </c>
       <c r="H102" s="3">
+        <v>600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,148 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F8" s="3">
         <v>11200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -836,20 +844,26 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,20 +921,26 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F10" s="3">
         <v>7200</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1031,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,14 +1098,20 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1181,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,47 +1199,47 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1210,21 +1250,27 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>3700</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1365,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F17" s="3">
         <v>15400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,56 +1548,58 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1553,90 +1621,102 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1650,11 +1730,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1689,85 +1769,97 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-4100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6000</v>
       </c>
-      <c r="H27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,40 +2237,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>200</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2186,14 +2308,20 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,56 +2468,62 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2545,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F41" s="3">
         <v>5200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>10900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2848,21 +3028,21 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2872,11 +3052,11 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2890,34 +3070,40 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>500</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2926,19 +3112,19 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -2953,16 +3139,22 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2990,23 +3182,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -3014,11 +3206,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3032,64 +3224,70 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3098,84 +3296,96 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F46" s="3">
         <v>9600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3213,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
@@ -3228,10 +3438,10 @@
         <v>200</v>
       </c>
       <c r="T47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
@@ -3240,45 +3450,51 @@
         <v>100</v>
       </c>
       <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F48" s="3">
         <v>23300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3310,14 +3526,20 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3609,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,70 +3763,76 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F54" s="3">
         <v>39100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4056,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>600</v>
       </c>
       <c r="W57" s="3">
         <v>600</v>
       </c>
       <c r="X57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3879,31 +4147,31 @@
         <v>1600</v>
       </c>
       <c r="F58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3914,11 +4182,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3938,46 +4206,52 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3992,13 +4266,13 @@
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4007,108 +4281,120 @@
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F60" s="3">
         <v>14700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4151,40 +4437,46 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F62" s="3">
         <v>20100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4222,8 +4514,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F66" s="3">
         <v>34800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-19100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-10600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-9600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-8200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-7500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-68900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5813,15 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5440,17 +5838,17 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,40 +6381,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6000,11 +6442,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6012,8 +6454,14 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6608,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-700</v>
       </c>
       <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7022,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>13600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>4800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>600</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>4600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,155 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -850,23 +854,26 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="3">
         <v>5400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,23 +934,26 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12000</v>
+        <v>21800</v>
       </c>
       <c r="E10" s="3">
         <v>12000</v>
       </c>
       <c r="F10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G10" s="3">
         <v>7200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1104,14 +1118,17 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,44 +1225,44 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1256,25 +1276,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>3700</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E17" s="3">
         <v>24000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4100</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,59 +1583,60 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1627,99 +1661,105 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-200</v>
       </c>
       <c r="AA21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1736,8 +1776,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1775,91 +1815,97 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,29 +2301,32 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>200</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -2275,11 +2336,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2314,14 +2375,17 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,59 +2541,62 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2551,85 +2621,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3008,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3034,18 +3124,18 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,8 +3148,8 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3076,26 +3166,29 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3105,17 +3198,17 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3124,10 +3217,10 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3145,16 +3238,19 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3188,11 +3284,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -3200,8 +3296,8 @@
       <c r="Q44" s="3">
         <v>100</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>100</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -3212,8 +3308,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3230,67 +3326,70 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3302,90 +3401,96 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3429,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
@@ -3444,7 +3549,7 @@
         <v>200</v>
       </c>
       <c r="V47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W47" s="3">
         <v>100</v>
@@ -3456,48 +3561,51 @@
         <v>100</v>
       </c>
       <c r="Z47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E48" s="3">
         <v>27500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3532,14 +3640,17 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,73 +3886,76 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E52" s="3">
         <v>8100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>3500</v>
       </c>
       <c r="Q52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R52" s="3">
         <v>3000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
       </c>
       <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
         <v>200</v>
-      </c>
-      <c r="X52" s="3">
-        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E54" s="3">
         <v>43600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>39100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,70 +4188,71 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
       </c>
       <c r="I57" s="3">
         <v>1800</v>
       </c>
       <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>600</v>
       </c>
       <c r="X57" s="3">
         <v>600</v>
@@ -4130,18 +4261,21 @@
         <v>600</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E58" s="3">
         <v>1600</v>
@@ -4153,28 +4287,28 @@
         <v>1600</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>400</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -4188,8 +4322,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4212,43 +4346,46 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E59" s="3">
         <v>15500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4257,146 +4394,152 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>600</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3800</v>
+        <v>6300</v>
       </c>
       <c r="E61" s="3">
         <v>3800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
       </c>
       <c r="J61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4443,43 +4586,46 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E62" s="3">
         <v>21600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4520,8 +4666,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E66" s="3">
         <v>47400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>41500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>400</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
       </c>
       <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>600</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>400</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-27000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1300</v>
       </c>
       <c r="L72" s="3">
         <v>-1300</v>
       </c>
       <c r="M72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-19100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-68900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>300</v>
       </c>
       <c r="J76" s="3">
         <v>300</v>
       </c>
       <c r="K76" s="3">
+        <v>300</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,17 +6013,18 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -5844,14 +6043,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q89" s="3">
         <v>-1800</v>
       </c>
       <c r="R89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-700</v>
       </c>
       <c r="V89" s="3">
         <v>-700</v>
       </c>
       <c r="W89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
       </c>
       <c r="AA89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,43 +6603,44 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6448,8 +6669,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1400</v>
       </c>
       <c r="G94" s="3">
         <v>-1400</v>
       </c>
       <c r="H94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,68 +7271,71 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7097,16 +7343,19 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>4800</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>4600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,161 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E8" s="3">
         <v>30800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -857,26 +860,29 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -937,26 +943,29 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E10" s="3">
         <v>21800</v>
-      </c>
-      <c r="E10" s="3">
-        <v>12000</v>
       </c>
       <c r="F10" s="3">
         <v>12000</v>
       </c>
       <c r="G10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="3">
         <v>7200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,14 +1134,17 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,44 +1247,44 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3500</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1279,28 +1298,31 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>3700</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E17" s="3">
         <v>30000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4100</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,62 +1616,63 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1664,105 +1697,111 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-200</v>
       </c>
       <c r="AB21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1779,8 +1818,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1818,94 +1857,100 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-200</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1984,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-200</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-200</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2315,21 +2375,21 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2339,11 +2399,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2378,14 +2438,17 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,62 +2610,65 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2624,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-200</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-200</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3127,18 +3216,18 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3151,8 +3240,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3169,29 +3258,32 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3201,17 +3293,17 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3220,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3241,16 +3333,19 @@
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3287,11 +3382,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>100</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -3299,8 +3394,8 @@
       <c r="R44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3406,8 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -3329,70 +3424,73 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3404,93 +3502,99 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3537,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -3552,7 +3656,7 @@
         <v>200</v>
       </c>
       <c r="W47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X47" s="3">
         <v>100</v>
@@ -3564,51 +3668,54 @@
         <v>100</v>
       </c>
       <c r="AA47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E48" s="3">
         <v>29100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3643,14 +3750,17 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
+      <c r="AA48" s="3">
+        <v>0</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3729,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,76 +4005,79 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
         <v>9400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>3500</v>
       </c>
       <c r="R52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S52" s="3">
         <v>3000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1900</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
       <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
         <v>200</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3969,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E54" s="3">
         <v>49900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,73 +4318,74 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
       </c>
       <c r="J57" s="3">
         <v>1800</v>
       </c>
       <c r="K57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>600</v>
       </c>
       <c r="Y57" s="3">
         <v>600</v>
@@ -4264,21 +4394,24 @@
         <v>600</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
@@ -4290,28 +4423,28 @@
         <v>1600</v>
       </c>
       <c r="I58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>400</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -4325,8 +4458,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4349,46 +4482,49 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E59" s="3">
         <v>18400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -4397,152 +4533,158 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E60" s="3">
         <v>27000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>600</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>400</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
         <v>6300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3800</v>
       </c>
       <c r="F61" s="3">
         <v>3800</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
       </c>
       <c r="K61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>1200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4589,46 +4731,49 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E62" s="3">
         <v>20200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4669,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>53500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
       </c>
       <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>600</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>400</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-27000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1300</v>
       </c>
       <c r="M72" s="3">
         <v>-1300</v>
       </c>
       <c r="N72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-68900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
       </c>
       <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-200</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,20 +6211,21 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -6046,14 +6244,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6094,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1800</v>
       </c>
       <c r="R89" s="3">
         <v>-1800</v>
       </c>
       <c r="S89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-700</v>
       </c>
       <c r="W89" s="3">
         <v>-700</v>
       </c>
       <c r="X89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
       </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,46 +6823,47 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6672,8 +6892,8 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
@@ -6684,8 +6904,11 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1400</v>
       </c>
       <c r="H94" s="3">
         <v>-1400</v>
       </c>
       <c r="I94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,71 +7516,74 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>13600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7346,16 +7591,19 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>4800</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>4600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,168 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E8" s="3">
         <v>32500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>30800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -863,29 +867,32 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E9" s="3">
         <v>8600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,29 +953,32 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E10" s="3">
         <v>23900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21800</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12000</v>
       </c>
       <c r="G10" s="3">
         <v>12000</v>
       </c>
       <c r="H10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I10" s="3">
         <v>7200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1137,14 +1151,17 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="3">
-        <v>0</v>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,13 +1243,16 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1250,44 +1270,44 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3500</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1301,31 +1321,34 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>3700</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E17" s="3">
         <v>33200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4100</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>200</v>
       </c>
       <c r="AC17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-200</v>
       </c>
       <c r="AC18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,16 +1650,17 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1635,47 +1669,47 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1700,111 +1734,117 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-5100</v>
       </c>
       <c r="E21" s="3">
-        <v>400</v>
+        <v>-3400</v>
       </c>
       <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-200</v>
       </c>
       <c r="AC21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1821,8 +1861,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1860,97 +1900,103 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-6100</v>
       </c>
       <c r="E23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-200</v>
       </c>
       <c r="AC23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-200</v>
       </c>
       <c r="AC26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-200</v>
       </c>
       <c r="AC27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,13 +2422,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2378,21 +2439,21 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2402,11 +2463,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2441,14 +2502,17 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>4</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,16 +2680,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2631,47 +2701,47 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2766,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-200</v>
       </c>
       <c r="AC33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-200</v>
       </c>
       <c r="AC35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3219,18 +3309,18 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3243,8 +3333,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3261,32 +3351,35 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3296,17 +3389,17 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3315,10 +3408,10 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3336,16 +3429,19 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3385,11 +3481,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>100</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -3397,8 +3493,8 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3409,8 +3505,8 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
@@ -3427,73 +3523,76 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5800</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
-        <v>3600</v>
-      </c>
       <c r="I45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3505,96 +3604,102 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>9600</v>
       </c>
       <c r="I46" s="3">
         <v>9700</v>
       </c>
       <c r="J46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K46" s="3">
         <v>11900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>200</v>
@@ -3659,7 +3764,7 @@
         <v>200</v>
       </c>
       <c r="X47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y47" s="3">
         <v>100</v>
@@ -3671,54 +3776,57 @@
         <v>100</v>
       </c>
       <c r="AB47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E48" s="3">
         <v>33100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>29100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>27500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3753,14 +3861,17 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
+      <c r="AB48" s="3">
+        <v>0</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,79 +4125,82 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>7000</v>
       </c>
       <c r="E52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F52" s="3">
         <v>9400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6800</v>
       </c>
-      <c r="H52" s="3">
-        <v>6200</v>
-      </c>
       <c r="I52" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J52" s="3">
         <v>4900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>3500</v>
       </c>
       <c r="S52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T52" s="3">
         <v>3000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1900</v>
-      </c>
-      <c r="W52" s="3">
-        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
       <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E54" s="3">
         <v>51200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,76 +4449,77 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
-        <v>3600</v>
-      </c>
       <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
         <v>3900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1800</v>
       </c>
       <c r="K57" s="3">
         <v>1800</v>
       </c>
       <c r="L57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>600</v>
       </c>
       <c r="Z57" s="3">
         <v>600</v>
@@ -4397,24 +4528,27 @@
         <v>600</v>
       </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1600</v>
       </c>
       <c r="G58" s="3">
         <v>1600</v>
@@ -4426,28 +4560,28 @@
         <v>1600</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>400</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -4461,8 +4595,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4485,49 +4619,52 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E59" s="3">
         <v>20700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10500</v>
       </c>
-      <c r="H59" s="3">
-        <v>9600</v>
-      </c>
       <c r="I59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -4536,158 +4673,164 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>200</v>
       </c>
       <c r="AC59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E60" s="3">
         <v>27900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>600</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>400</v>
       </c>
       <c r="AC60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>3800</v>
       </c>
       <c r="G61" s="3">
         <v>3800</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
       </c>
       <c r="L61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>1200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4734,49 +4877,52 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E62" s="3">
         <v>25500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>82000</v>
       </c>
       <c r="E66" s="3">
+        <v>58400</v>
+      </c>
+      <c r="F66" s="3">
         <v>53500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>41500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
       <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>600</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>400</v>
       </c>
       <c r="AC66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1300</v>
       </c>
       <c r="N72" s="3">
         <v>-1300</v>
       </c>
       <c r="O72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-6500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-68900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>300</v>
       </c>
       <c r="L76" s="3">
         <v>300</v>
       </c>
       <c r="M76" s="3">
+        <v>300</v>
+      </c>
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-200</v>
       </c>
       <c r="AC81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,23 +6410,24 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -6247,14 +6446,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1800</v>
       </c>
       <c r="S89" s="3">
         <v>-1800</v>
       </c>
       <c r="T89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-700</v>
       </c>
       <c r="X89" s="3">
         <v>-700</v>
       </c>
       <c r="Y89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-200</v>
       </c>
       <c r="AC89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,49 +7044,50 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6895,8 +7116,8 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1700</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>200</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,74 +7762,77 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>13600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7594,16 +7840,19 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>4800</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>4600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E8" s="3">
         <v>32200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -870,32 +874,35 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E9" s="3">
         <v>9500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -956,32 +963,35 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E10" s="3">
         <v>22700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>12000</v>
       </c>
       <c r="H10" s="3">
         <v>12000</v>
       </c>
       <c r="I10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J10" s="3">
         <v>7200</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,14 +1168,17 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,16 +1263,19 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1273,44 +1293,44 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3500</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1324,16 +1344,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>3700</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,17 +1364,17 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
+        <v>400</v>
+      </c>
+      <c r="F15" s="3">
         <v>300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E17" s="3">
         <v>37700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4100</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>200</v>
       </c>
       <c r="AD17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>-200</v>
       </c>
       <c r="AD18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,11 +1694,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1672,47 +1706,47 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1737,117 +1771,123 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-200</v>
       </c>
       <c r="AD21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1864,8 +1904,8 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1903,100 +1943,106 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
+      <c r="AC22" s="3">
+        <v>0</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-200</v>
       </c>
       <c r="AD23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-200</v>
       </c>
       <c r="AD26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-200</v>
       </c>
       <c r="AD27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,16 +2483,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2442,21 +2503,21 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2466,11 +2527,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2505,14 +2566,17 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>4</v>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,11 +2762,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2704,47 +2774,47 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-200</v>
       </c>
       <c r="AD33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-200</v>
       </c>
       <c r="AD35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3312,18 +3402,18 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3336,8 +3426,8 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3354,35 +3444,38 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3392,17 +3485,17 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3411,10 +3504,10 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
@@ -3432,16 +3525,19 @@
         <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3484,11 +3580,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>100</v>
@@ -3496,8 +3592,8 @@
       <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>100</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -3508,8 +3604,8 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
@@ -3526,76 +3622,79 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3607,99 +3706,105 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9700</v>
       </c>
       <c r="J46" s="3">
         <v>9700</v>
       </c>
       <c r="K46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L46" s="3">
         <v>11900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3752,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>200</v>
@@ -3767,7 +3872,7 @@
         <v>200</v>
       </c>
       <c r="Y47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z47" s="3">
         <v>100</v>
@@ -3779,57 +3884,60 @@
         <v>100</v>
       </c>
       <c r="AC47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E48" s="3">
         <v>48700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>33100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>29100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>27500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3864,14 +3972,17 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
+      <c r="AC48" s="3">
+        <v>0</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,82 +4245,85 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>3500</v>
       </c>
       <c r="T52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U52" s="3">
         <v>3000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1900</v>
-      </c>
-      <c r="X52" s="3">
-        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
       </c>
       <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>200</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E54" s="3">
         <v>70400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>51200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,79 +4580,80 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1800</v>
       </c>
       <c r="L57" s="3">
         <v>1800</v>
       </c>
       <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>600</v>
       </c>
       <c r="AA57" s="3">
         <v>600</v>
@@ -4531,27 +4662,30 @@
         <v>600</v>
       </c>
       <c r="AC57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AD57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1600</v>
       </c>
       <c r="H58" s="3">
         <v>1600</v>
@@ -4563,28 +4697,28 @@
         <v>1600</v>
       </c>
       <c r="K58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>400</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -4598,8 +4732,8 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4622,52 +4756,55 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E59" s="3">
         <v>26500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -4676,164 +4813,170 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>100</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>200</v>
       </c>
       <c r="AD59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E60" s="3">
         <v>34100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
       <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>600</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>400</v>
       </c>
       <c r="AD60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>7800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6300</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3800</v>
       </c>
       <c r="H61" s="3">
         <v>3800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
       </c>
       <c r="M61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>1200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4880,52 +5023,55 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E62" s="3">
         <v>40100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>21600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>58400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>41500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
-      </c>
-      <c r="X66" s="3">
-        <v>400</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
       </c>
       <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>600</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>400</v>
       </c>
       <c r="AD66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-27000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1300</v>
       </c>
       <c r="O72" s="3">
         <v>-1300</v>
       </c>
       <c r="P72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-19100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-6500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-68900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>300</v>
       </c>
       <c r="M76" s="3">
         <v>300</v>
       </c>
       <c r="N76" s="3">
+        <v>300</v>
+      </c>
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-200</v>
       </c>
       <c r="AD81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,26 +6609,27 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -6449,14 +6648,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1800</v>
       </c>
       <c r="T89" s="3">
         <v>-1800</v>
       </c>
       <c r="U89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-700</v>
       </c>
       <c r="Y89" s="3">
         <v>-700</v>
       </c>
       <c r="Z89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>-200</v>
       </c>
       <c r="AD89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,52 +7265,53 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7119,8 +7340,8 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1700</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>200</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,77 +8008,80 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7843,16 +8089,19 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>4800</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>4600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JETMF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>JETMF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,182 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42766</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E8" s="3">
         <v>31500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>32500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -877,35 +881,38 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,35 +973,38 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E10" s="3">
         <v>23600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>22700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>21800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>12000</v>
       </c>
       <c r="I10" s="3">
         <v>12000</v>
       </c>
       <c r="J10" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1171,14 +1185,17 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD12" s="3">
-        <v>0</v>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,8 +1297,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1296,44 +1316,44 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3500</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1347,37 +1367,40 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>3700</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <v>400</v>
       </c>
       <c r="F15" s="3">
+        <v>400</v>
+      </c>
+      <c r="G15" s="3">
         <v>300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4100</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>200</v>
       </c>
       <c r="AE17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>-200</v>
       </c>
       <c r="AE18" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +1718,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1697,11 +1731,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1709,47 +1743,47 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1774,123 +1808,129 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-200</v>
       </c>
       <c r="AE21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1907,8 +1947,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1946,103 +1986,109 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>4</v>
+      <c r="AD22" s="3">
+        <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>-200</v>
       </c>
       <c r="AE23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2130,8 +2176,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>-200</v>
       </c>
       <c r="AE26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>-200</v>
       </c>
       <c r="AE27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2497,8 +2558,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2506,21 +2567,21 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -2530,11 +2591,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2569,14 +2630,17 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>4</v>
+      <c r="AD29" s="3">
+        <v>0</v>
       </c>
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,8 +2820,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2765,11 +2835,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2777,47 +2847,47 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2842,97 +2912,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>-200</v>
       </c>
       <c r="AE33" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>-200</v>
       </c>
       <c r="AE35" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42766</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,97 +3355,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3405,18 +3495,18 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3429,8 +3519,8 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3447,38 +3537,41 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3488,17 +3581,17 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3507,10 +3600,10 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
-      </c>
-      <c r="W43" s="3">
-        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
@@ -3528,16 +3621,19 @@
         <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3583,11 +3679,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
-        <v>100</v>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>100</v>
@@ -3595,8 +3691,8 @@
       <c r="U44" s="3">
         <v>100</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>100</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
@@ -3607,8 +3703,8 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
@@ -3625,79 +3721,82 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3709,102 +3808,108 @@
         <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E46" s="3">
         <v>17500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9700</v>
       </c>
       <c r="K46" s="3">
         <v>9700</v>
       </c>
       <c r="L46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="M46" s="3">
         <v>11900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3860,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>200</v>
@@ -3875,7 +3980,7 @@
         <v>200</v>
       </c>
       <c r="Z47" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA47" s="3">
         <v>100</v>
@@ -3887,60 +3992,63 @@
         <v>100</v>
       </c>
       <c r="AD47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E48" s="3">
         <v>68500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>33100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3975,14 +4083,17 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>4</v>
+      <c r="AD48" s="3">
+        <v>0</v>
       </c>
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4070,8 +4181,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,85 +4365,88 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E52" s="3">
         <v>9000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>3500</v>
       </c>
       <c r="U52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="V52" s="3">
         <v>3000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1900</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
       </c>
       <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB52" s="3">
         <v>200</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>100</v>
       </c>
       <c r="AC52" s="3">
         <v>100</v>
@@ -4337,8 +4457,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E54" s="3">
         <v>95100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>70400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>51200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,82 +4711,83 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>9900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
       </c>
       <c r="M57" s="3">
         <v>1800</v>
       </c>
       <c r="N57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>600</v>
       </c>
       <c r="AB57" s="3">
         <v>600</v>
@@ -4665,30 +4796,33 @@
         <v>600</v>
       </c>
       <c r="AD57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="AE57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
@@ -4700,28 +4834,28 @@
         <v>1600</v>
       </c>
       <c r="L58" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>400</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
@@ -4735,8 +4869,8 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4759,55 +4893,58 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E59" s="3">
         <v>35900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -4816,170 +4953,176 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>100</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>200</v>
       </c>
       <c r="AE59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E60" s="3">
         <v>54800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
       <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>600</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>400</v>
       </c>
       <c r="AE60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6300</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3800</v>
       </c>
       <c r="I61" s="3">
         <v>3800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
       </c>
       <c r="N61" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>1200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -5026,55 +5169,58 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E62" s="3">
         <v>57800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>40100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>21600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>20100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5115,8 +5261,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E66" s="3">
         <v>113200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>58400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>53500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>41500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>400</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
       </c>
       <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>600</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>400</v>
       </c>
       <c r="AE66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-27000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1300</v>
       </c>
       <c r="P72" s="3">
         <v>-1300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-23000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-6500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-68900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-68700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-18100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>300</v>
       </c>
       <c r="N76" s="3">
         <v>300</v>
       </c>
       <c r="O76" s="3">
+        <v>300</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42766</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4100</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>-200</v>
       </c>
       <c r="AE81" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,29 +6808,30 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -6651,14 +6850,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6699,8 +6898,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>4300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1800</v>
       </c>
       <c r="U89" s="3">
         <v>-1800</v>
       </c>
       <c r="V89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-700</v>
       </c>
       <c r="Z89" s="3">
         <v>-700</v>
       </c>
       <c r="AA89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
-      </c>
-      <c r="AD89" s="3">
-        <v>-200</v>
       </c>
       <c r="AE89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,55 +7486,56 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -7343,8 +7564,8 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
+      <c r="AB91" s="3">
+        <v>0</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
@@ -7355,8 +7576,11 @@
       <c r="AE91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>200</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,80 +8254,83 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -8092,16 +8338,19 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>4800</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AE100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>4600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-200</v>
       </c>
     </row>
